--- a/01.Tasks/01.xlsx
+++ b/01.Tasks/01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Илья\Desktop\workbuf\ЭТ в АД\Урок 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\excel\01.Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79F7F49-6FA2-4927-98E2-D113B2138910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A86193-AC5C-4A54-A66B-A08EABAF2AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3C993F87-5E2B-4514-AE04-227014C39127}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3C993F87-5E2B-4514-AE04-227014C39127}"/>
   </bookViews>
   <sheets>
     <sheet name="Книги" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>№</t>
   </si>
@@ -115,14 +116,32 @@
   </si>
   <si>
     <t>Михаил Булгаков</t>
+  </si>
+  <si>
+    <t>Выручка по наименованию</t>
+  </si>
+  <si>
+    <t>Итоги:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -151,8 +170,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -467,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA79629-C2E7-4595-9436-4AF2BBA60DEF}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,11 +504,12 @@
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,14 +525,17 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -520,14 +548,18 @@
       <c r="D2">
         <v>1942</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>250</v>
       </c>
       <c r="G2">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="2">
+        <f>F2*G2</f>
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -540,14 +572,18 @@
       <c r="D3">
         <v>1927</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>270</v>
       </c>
       <c r="G3">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H11" si="0">F3*G3</f>
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -560,14 +596,18 @@
       <c r="D4">
         <v>1925</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>260</v>
       </c>
       <c r="G4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -580,14 +620,18 @@
       <c r="D5">
         <v>1943</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>300</v>
       </c>
       <c r="G5">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -600,14 +644,18 @@
       <c r="D6">
         <v>1933</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>320</v>
       </c>
       <c r="G6">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -620,14 +668,18 @@
       <c r="D7">
         <v>1932</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>200</v>
       </c>
       <c r="G7">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -640,14 +692,18 @@
       <c r="D8">
         <v>1939</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>230</v>
       </c>
       <c r="G8">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -660,14 +716,18 @@
       <c r="D9">
         <v>1940</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>300</v>
       </c>
       <c r="G9">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -680,14 +740,18 @@
       <c r="D10">
         <v>1980</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>210</v>
       </c>
       <c r="G10">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -700,15 +764,29 @@
       <c r="D11">
         <v>1967</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>250</v>
       </c>
       <c r="G11">
         <v>22</v>
       </c>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="3">
+        <f>SUM(H2:H11)</f>
+        <v>50040</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
